--- a/EXCEL/my pratice/day5.xlsx
+++ b/EXCEL/my pratice/day5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\my pratice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18085D12-6D5A-412B-B097-28BD98B5D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1284643-E586-43FA-BEA6-EF88B05452D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0580FCEC-4349-4BE9-BBD1-B06807009B1C}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -248,16 +248,25 @@
   </si>
   <si>
     <t xml:space="preserve"> =SUMPRODUCT((B5:B14)*(D5:D14)*(B5:B14&lt;5))</t>
+  </si>
+  <si>
+    <t>SUMPRODUCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1132,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8517C87C-875C-4A3A-AC11-9D6170269005}">
-  <dimension ref="B3:N20"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,6 +1155,11 @@
     <col min="13" max="13" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>49</v>
@@ -1466,6 +1480,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:B14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>5</formula>
